--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\pokemon-gaole\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A206B2B-9406-4C57-94C0-F05D8086E932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27E658-4595-4EA3-9CE8-9DE600474F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="2310" yWindow="3900" windowWidth="25125" windowHeight="11835" activeTab="1" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend_4" sheetId="1" r:id="rId1"/>
+    <sheet name="Rush_1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="150">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -244,6 +245,324 @@
   </si>
   <si>
     <t>5-美錄梅塔</t>
+  </si>
+  <si>
+    <t>2-斧牙龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-大岩蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-爆岩龜獸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-火伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-卡咪龜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-皮卡丘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-尼多郎</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-爆鯉龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-尼多娜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-堅果啞鈴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-海魔獅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-雷公</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-暴風龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-阿爾宙斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-尼多力諾</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-水箭龜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-雙斧戰龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-海豹球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-達克萊伊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-雷伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-堅果啞鈴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-火恐龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-牙牙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-甲殼龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-皮卡丘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-大比鳥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-寶貝龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-小火龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-尼多蘭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-尼多后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-大綱蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-謎擬Q</t>
+  </si>
+  <si>
+    <t>1-種子鐵球</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-拉蒂歐斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-火伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-波波</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-露奈雅拉</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-比比鳥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-大比鳥</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-尼多王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-皮卡丘</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-水君</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-妙蛙草</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-妙蛙種子</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-暴飛龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-噴火龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-噴火龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-四顎針龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-拉帝亞斯</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-噴火龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-傑尼龜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-帝牙海獅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-尼多后</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-爆焰龜獸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-水伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-妙蛙花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-水箭龜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-暴鯉龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-雙斧戰龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-大綱蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-帝牙海獅</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-炎帝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-水伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-暴飛龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-尼多娜</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-海魔獅</t>
+  </si>
+  <si>
+    <t>5-餓食大王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-尼多王</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-妙蛙花</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-雷伊布</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-超夢</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-甲賀忍蛙</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-暴鯉龍</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-妙蛙草</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-索爾迦雷歐</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-基格爾德</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-爆焰龜獸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-大綱蛇</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -655,7 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415D778-A234-49F7-84D1-6E8D39E2E57E}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -1969,4 +2288,1323 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
+  <dimension ref="A1:H50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>105</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+      <c r="G14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>101</v>
+      </c>
+      <c r="F20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" t="s">
+        <v>122</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>135</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>133</v>
+      </c>
+      <c r="D29" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H32" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>111</v>
+      </c>
+      <c r="C33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" t="s">
+        <v>143</v>
+      </c>
+      <c r="E35" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E36" t="s">
+        <v>125</v>
+      </c>
+      <c r="F36" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>74</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" t="s">
+        <v>142</v>
+      </c>
+      <c r="F38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" t="s">
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>108</v>
+      </c>
+      <c r="H39" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>85</v>
+      </c>
+      <c r="G41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G42" t="s">
+        <v>91</v>
+      </c>
+      <c r="H42" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
+        <v>144</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>108</v>
+      </c>
+      <c r="D45" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G46" t="s">
+        <v>93</v>
+      </c>
+      <c r="H46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>113</v>
+      </c>
+      <c r="E47" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" t="s">
+        <v>80</v>
+      </c>
+      <c r="E48" t="s">
+        <v>113</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>132</v>
+      </c>
+      <c r="F49" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" t="s">
+        <v>127</v>
+      </c>
+      <c r="D50" t="s">
+        <v>93</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>143</v>
+      </c>
+      <c r="G50" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\pokemon-gaole\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B27E658-4595-4EA3-9CE8-9DE600474F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F914610-07ED-4C5D-9FCD-D7AA0EFA0080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="3900" windowWidth="25125" windowHeight="11835" activeTab="1" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend_4" sheetId="1" r:id="rId1"/>
-    <sheet name="Rush_1" sheetId="2" r:id="rId2"/>
+    <sheet name="Legend 4 彈" sheetId="1" r:id="rId1"/>
+    <sheet name="Rush 1 彈" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -248,321 +248,321 @@
   </si>
   <si>
     <t>2-斧牙龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-大岩蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-爆岩龜獸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-火伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-卡咪龜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-皮卡丘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-尼多郎</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-爆鯉龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-尼多娜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-堅果啞鈴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-海魔獅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-雷公</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-暴風龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-阿爾宙斯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-尼多力諾</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-水箭龜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-雙斧戰龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-海豹球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-達克萊伊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-雷伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-堅果啞鈴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-火恐龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-牙牙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-甲殼龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-皮卡丘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-大比鳥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-寶貝龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-小火龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-尼多蘭</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-尼多后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-大綱蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-謎擬Q</t>
   </si>
   <si>
     <t>1-種子鐵球</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-拉蒂歐斯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-火伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-波波</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-露奈雅拉</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-比比鳥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-大比鳥</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-尼多王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-皮卡丘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-水君</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-妙蛙草</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-妙蛙種子</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-暴飛龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-噴火龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-噴火龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-四顎針龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-拉帝亞斯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-噴火龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-傑尼龜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-帝牙海獅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-尼多后</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-爆焰龜獸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-水伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-妙蛙花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-水箭龜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-暴鯉龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-雙斧戰龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-大綱蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-帝牙海獅</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-炎帝</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-水伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-暴飛龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1-尼多娜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-海魔獅</t>
   </si>
   <si>
     <t>5-餓食大王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-尼多王</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-妙蛙花</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-雷伊布</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-超夢</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-甲賀忍蛙</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-暴鯉龍</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-妙蛙草</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-索爾迦雷歐</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5-基格爾德</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4-爆焰龜獸</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2-大綱蛇</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -579,29 +579,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF6C757D"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -645,17 +645,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415D778-A234-49F7-84D1-6E8D39E2E57E}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -983,1308 +986,1334 @@
     <col min="1" max="8" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="20" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+    <row r="36" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="37" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+    <row r="38" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="40" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+    <row r="43" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G46" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+    <row r="48" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B48" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H49" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2292,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2304,1307 +2333,1333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F2" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H3" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G13" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G16" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G24" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H27" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H28" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H29" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H30" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G31" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H31" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G32" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H32" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H33" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G34" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H34" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E35" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G35" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H35" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H36" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G38" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G39" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H40" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E41" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G41" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H41" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C43" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D43" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E43" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F43" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H43" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C44" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D44" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F44" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F45" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G45" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F46" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H46" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C47" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D47" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H47" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C48" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E48" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G48" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H48" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E49" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G49" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H49" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C50" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D50" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F50" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G50" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H50" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C51" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F51" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G51" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H51" s="4" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pokemon-gaole\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7DFEFC4-477A-49F3-A859-CC76C1C459C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF65564-C441-4F73-BD8F-30AAE27BB310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="23400" windowHeight="13035" activeTab="4" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="348">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -255,10 +246,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-爆岩龜獸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4-火伊布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -275,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-爆鯉龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-尼多娜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,10 +275,6 @@
   </si>
   <si>
     <t>4-雷公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-暴風龍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1639,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FFC75-5B4A-4FC5-A507-418BE18DE183}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1676,1302 +1655,1302 @@
     </row>
     <row r="2" spans="1:8" ht="18" thickBot="1">
       <c r="A2" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1">
       <c r="A3" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="F3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18" thickBot="1">
       <c r="A4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="G4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>297</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="18" thickBot="1">
       <c r="A5" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" thickBot="1">
       <c r="A6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>307</v>
-      </c>
       <c r="H6" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" thickBot="1">
       <c r="A7" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C9" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>290</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" thickBot="1">
       <c r="A10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" thickBot="1">
       <c r="A11" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="18" thickBot="1">
       <c r="A12" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="G12" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>320</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="18" thickBot="1">
       <c r="A13" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="18" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18" thickBot="1">
       <c r="A17" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="18" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18" thickBot="1">
       <c r="A19" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>291</v>
-      </c>
       <c r="G19" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18" thickBot="1">
       <c r="A20" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>8</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1">
       <c r="A21" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18" thickBot="1">
       <c r="A23" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="18" thickBot="1">
       <c r="A24" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18" thickBot="1">
       <c r="A25" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="18" thickBot="1">
       <c r="A26" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18" thickBot="1">
       <c r="A27" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="18" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="18" thickBot="1">
       <c r="A29" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E29" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="18" thickBot="1">
       <c r="A30" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18" thickBot="1">
       <c r="A31" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="18" thickBot="1">
       <c r="A32" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="18" thickBot="1">
       <c r="A33" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>301</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="18" thickBot="1">
       <c r="A34" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="18" thickBot="1">
       <c r="A35" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="18" thickBot="1">
       <c r="A36" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="18" thickBot="1">
       <c r="A37" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="18" thickBot="1">
       <c r="A38" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="18" thickBot="1">
       <c r="A39" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="18" thickBot="1">
       <c r="A40" s="8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1">
       <c r="A42" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="18" thickBot="1">
       <c r="A43" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="18" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="18" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="18" thickBot="1">
       <c r="A46" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F46" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>321</v>
-      </c>
       <c r="H46" s="8" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="18" thickBot="1">
       <c r="A47" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="18" thickBot="1">
       <c r="A48" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D48" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="E48" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>313</v>
-      </c>
       <c r="H48" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="18" thickBot="1">
       <c r="A49" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="18" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="18" thickBot="1">
       <c r="A51" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3021,51 +3000,51 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>30</v>
@@ -3073,340 +3052,340 @@
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
       <c r="A6" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>243</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="H9" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1">
@@ -3414,207 +3393,207 @@
         <v>0</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F18" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>255</v>
-      </c>
       <c r="C19" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">
       <c r="A21" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1">
@@ -3622,22 +3601,22 @@
         <v>52</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>0</v>
@@ -3645,42 +3624,42 @@
     </row>
     <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>57</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>0</v>
@@ -3689,59 +3668,59 @@
         <v>41</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>52</v>
@@ -3749,62 +3728,62 @@
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G31" s="5" t="s">
-        <v>234</v>
-      </c>
       <c r="H31" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>57</v>
@@ -3816,65 +3795,65 @@
         <v>57</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="G33" s="5" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
@@ -3882,103 +3861,103 @@
         <v>30</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="G35" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
@@ -3986,74 +3965,74 @@
         <v>57</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="H39" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H41" s="6" t="s">
         <v>57</v>
@@ -4064,100 +4043,100 @@
         <v>0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>57</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>0</v>
@@ -4165,158 +4144,158 @@
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G46" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H46" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.25" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G48" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="H48" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4366,106 +4345,106 @@
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1">
       <c r="A2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>166</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" thickBot="1">
       <c r="A5" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" thickBot="1">
@@ -4473,126 +4452,126 @@
         <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17.25" thickBot="1">
       <c r="A7" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="H7" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" thickBot="1">
       <c r="A9" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>41</v>
@@ -4600,1068 +4579,1068 @@
     </row>
     <row r="11" spans="1:8" ht="17.25" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="F12" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" thickBot="1">
       <c r="A13" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" thickBot="1">
       <c r="A15" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17.25" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H17" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="17.25" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="E19" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>181</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="17.25" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F21" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H21" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="17.25" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="17.25" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="17.25" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="F24" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="G24" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="H24" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="17.25" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="17.25" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="17.25" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="F28" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="17.25" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="17.25" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="17.25" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="17.25" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="6" t="s">
-        <v>197</v>
-      </c>
       <c r="H32" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="17.25" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1">
       <c r="A34" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="17.25" thickBot="1">
       <c r="A35" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>171</v>
-      </c>
       <c r="C35" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="17.25" thickBot="1">
       <c r="A36" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="H36" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="17.25" thickBot="1">
       <c r="A37" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="17.25" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="17.25" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="17.25" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G40" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="H40" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.25" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.25" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E42" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.25" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.25" thickBot="1">
       <c r="A44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H44" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.25" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>41</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.25" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.25" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="H47" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="17.25" thickBot="1">
       <c r="A48" s="5" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="17.25" thickBot="1">
       <c r="A49" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="17.25" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="17.25" thickBot="1">
       <c r="A51" s="5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="G51" s="5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5737,7 +5716,7 @@
     </row>
     <row r="3" spans="1:8" ht="18" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -7020,8 +6999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7063,386 +7042,386 @@
         <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>75</v>
-      </c>
       <c r="H2" s="4" t="s">
-        <v>76</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>94</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>70</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="F9" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>107</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>96</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -7450,36 +7429,36 @@
         <v>70</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>69</v>
@@ -7488,62 +7467,62 @@
         <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>69</v>
@@ -7551,129 +7530,129 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="E22" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="H23" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>70</v>
@@ -7681,418 +7660,418 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>69</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G32" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="F34" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="G35" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>126</v>
-      </c>
       <c r="H35" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B36" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -8100,230 +8079,230 @@
         <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>69</v>
@@ -8331,28 +8310,28 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H51" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pokemon-gaole\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF65564-C441-4F73-BD8F-30AAE27BB310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857B312-33C7-4107-9138-65E642468D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="23400" windowHeight="13035" activeTab="4" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="-345" yWindow="1230" windowWidth="15915" windowHeight="13215" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Legend 3 彈" sheetId="3" r:id="rId3"/>
     <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
     <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
+    <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="422">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1161,6 +1162,302 @@
   </si>
   <si>
     <t>4-大竺葵</t>
+  </si>
+  <si>
+    <t>2-夢歌仙人掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-沼躍魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-巨沼魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-水躍魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-波克基斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-鬼斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-波克基古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-火焰鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-凱羅斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-火雉雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-鑽角犀獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-蜂女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-森林蜥蜴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-力壯雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-刺球仙人掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-凱西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-索爾迦雷歐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-破破袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-灰塵山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-波克基斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-九尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-巨沼魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-鬼斯通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-月亮伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-六尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-吞食獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-溶食獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-波克比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-木手宮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-木守宮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-赫拉克羅斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-獨角犀牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-波爾凱尼恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-勇基拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-超甲狂犀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-快龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-火焰雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-杖尾鱗甲龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-凱羅斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-吞食獸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-耿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-灰塵山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-太陽伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-心鱗寶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-三蜜蜂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-胡地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-胡地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-蜥蜴王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-超甲狂犀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-鱗甲龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-蜥蜴王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-月亮伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-夢歌仙人掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-鐵火灰夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-火焰雞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-閃電鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-耿鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-露奈雅拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-蜂女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-六鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-奈克洛茲瑪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-杖尾鱗甲龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-赫拉克羅斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-太陽伊布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-鳳王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-九尾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-急凍鳥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-酋雷姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-萊希拉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-列空坐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-紙御劍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-捷克羅姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-洛奇亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-露奈亞拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6999,8 +7296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8338,4 +8635,1349 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4857B312-33C7-4107-9138-65E642468D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE82D37-CFEF-49C4-A64D-E25D9F4065D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-345" yWindow="1230" windowWidth="15915" windowHeight="13215" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="1425" yWindow="855" windowWidth="25125" windowHeight="11805" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="421">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1453,10 +1453,6 @@
   </si>
   <si>
     <t>5-洛奇亞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-露奈亞拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8641,8 +8637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9499,7 +9495,7 @@
         <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>406</v>
@@ -9964,7 +9960,7 @@
         <v>359</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>142</v>
+        <v>364</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>390</v>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pokemon-gaole\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE82D37-CFEF-49C4-A64D-E25D9F4065D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1E425-7717-47A2-A2E5-DFAB60868134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="855" windowWidth="25125" windowHeight="11805" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="424">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1228,10 +1228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-索爾迦雷歐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-破破袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1292,10 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-波爾凱尼恩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2-勇基拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1304,10 +1296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3-快龍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-火焰雞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1392,10 +1380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4-露奈雅拉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-蜂女王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1404,10 +1388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-奈克洛茲瑪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3-杖尾鱗甲龍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1432,10 +1412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-酋雷姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5-萊希拉姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,6 +1429,38 @@
   </si>
   <si>
     <t>5-洛奇亞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-索爾迦雷歐-R</t>
+  </si>
+  <si>
+    <t>3-快龍-R</t>
+  </si>
+  <si>
+    <t>4-皮卡丘-R</t>
+  </si>
+  <si>
+    <t>4-露奈雅拉-R</t>
+  </si>
+  <si>
+    <t>5-波爾凱尼恩-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-奈克洛茲瑪-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-酋雷姆-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-快龍-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-索爾迦雷歐-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8637,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8680,7 +8688,7 @@
         <v>357</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>354</v>
@@ -8689,13 +8697,13 @@
         <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8706,13 +8714,13 @@
         <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>359</v>
@@ -8721,33 +8729,33 @@
         <v>358</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>410</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>361</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -8755,25 +8763,25 @@
         <v>350</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -8781,25 +8789,25 @@
         <v>351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>357</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -8807,22 +8815,22 @@
         <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>348</v>
@@ -8833,22 +8841,22 @@
         <v>353</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>363</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>352</v>
@@ -8859,25 +8867,25 @@
         <v>354</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>360</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -8885,10 +8893,10 @@
         <v>355</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>349</v>
@@ -8897,13 +8905,13 @@
         <v>353</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -8911,7 +8919,7 @@
         <v>356</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>351</v>
@@ -8920,16 +8928,16 @@
         <v>353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>363</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8940,7 +8948,7 @@
         <v>360</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>363</v>
@@ -8949,24 +8957,24 @@
         <v>349</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>363</v>
@@ -8975,10 +8983,10 @@
         <v>348</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>362</v>
@@ -8986,28 +8994,28 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9015,25 +9023,25 @@
         <v>358</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>381</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9041,22 +9049,22 @@
         <v>359</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>361</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>349</v>
@@ -9067,16 +9075,16 @@
         <v>360</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>348</v>
@@ -9085,7 +9093,7 @@
         <v>360</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9099,19 +9107,19 @@
         <v>353</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9119,19 +9127,19 @@
         <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>362</v>
@@ -9145,30 +9153,30 @@
         <v>363</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>351</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>356</v>
@@ -9177,16 +9185,16 @@
         <v>357</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>353</v>
@@ -9197,22 +9205,22 @@
         <v>356</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>361</v>
@@ -9220,16 +9228,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>352</v>
@@ -9241,24 +9249,24 @@
         <v>349</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>364</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>354</v>
@@ -9267,30 +9275,30 @@
         <v>363</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>359</v>
@@ -9298,25 +9306,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>354</v>
@@ -9324,7 +9332,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>358</v>
@@ -9333,13 +9341,13 @@
         <v>348</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>349</v>
@@ -9350,13 +9358,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>349</v>
@@ -9365,50 +9373,50 @@
         <v>360</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>351</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>357</v>
@@ -9420,7 +9428,7 @@
         <v>362</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>357</v>
@@ -9428,36 +9436,36 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>363</v>
@@ -9466,10 +9474,10 @@
         <v>348</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>361</v>
@@ -9480,7 +9488,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>362</v>
@@ -9489,16 +9497,16 @@
         <v>349</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>363</v>
@@ -9506,106 +9514,106 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>350</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>358</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>362</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>351</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>360</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -9613,22 +9621,22 @@
         <v>354</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>360</v>
@@ -9648,24 +9656,24 @@
         <v>352</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>360</v>
@@ -9674,39 +9682,39 @@
         <v>360</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>358</v>
@@ -9720,36 +9728,36 @@
         <v>354</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>107</v>
+        <v>417</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>351</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>354</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>357</v>
@@ -9758,59 +9766,59 @@
         <v>353</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>348</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>361</v>
@@ -9818,45 +9826,45 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>359</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>348</v>
@@ -9865,82 +9873,82 @@
         <v>353</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>358</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H49" s="4" t="s">
         <v>379</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>351</v>
@@ -9948,28 +9956,28 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>364</v>
+        <v>423</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pokemon-gaole\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C1E425-7717-47A2-A2E5-DFAB60868134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540FECE-FF37-4064-8F8A-2ED2237FF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="13935" yWindow="0" windowWidth="13935" windowHeight="16200" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -8645,8 +8645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pokemon-gaole\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E540FECE-FF37-4064-8F8A-2ED2237FF619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D952A-A618-43E7-A844-0C32980D7BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="0" windowWidth="13935" windowHeight="16200" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="1650" yWindow="1245" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
     <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
     <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
+    <sheet name="Rush 3 彈" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="470">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1463,12 +1464,359 @@
     <t>4-索爾迦雷歐-R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>火稚雞</t>
+  </si>
+  <si>
+    <t>2-頓甲</t>
+  </si>
+  <si>
+    <t>2-毒薔薇</t>
+  </si>
+  <si>
+    <t>2-貓頭夜鷹</t>
+  </si>
+  <si>
+    <t>2-奇魯莉安</t>
+  </si>
+  <si>
+    <t>2-沼王</t>
+  </si>
+  <si>
+    <t>2-心蝙蝠</t>
+  </si>
+  <si>
+    <t>2-烈咬陸鯊</t>
+  </si>
+  <si>
+    <t>1-咕咕</t>
+  </si>
+  <si>
+    <t>1-烏波</t>
+  </si>
+  <si>
+    <t>1-拉魯拉絲</t>
+  </si>
+  <si>
+    <t>1-滾滾蝙蝠</t>
+  </si>
+  <si>
+    <t>1-小小象</t>
+  </si>
+  <si>
+    <t>1-含羞苞</t>
+  </si>
+  <si>
+    <t>3-沙奈朵</t>
+  </si>
+  <si>
+    <t>3-艾路雷朵</t>
+  </si>
+  <si>
+    <t>3-沼王</t>
+  </si>
+  <si>
+    <t>3-貓頭夜鷹</t>
+  </si>
+  <si>
+    <t>3-頓甲</t>
+  </si>
+  <si>
+    <t>3-心蝙蝠</t>
+  </si>
+  <si>
+    <t>3-羅絲雷朵</t>
+  </si>
+  <si>
+    <t>4-艾路雷朵</t>
+  </si>
+  <si>
+    <t>4-土地雲</t>
+  </si>
+  <si>
+    <t>4-龍捲雲</t>
+  </si>
+  <si>
+    <t>4-雷電雲</t>
+  </si>
+  <si>
+    <t>4-沙奈朵</t>
+  </si>
+  <si>
+    <t>4-羅絲雷朵</t>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>雷吉奇卡斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>伊裴爾塔爾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拉帝亞斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>哲爾尼亞斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>蓋歐卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>虛無伊德</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>烈空坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>電束木</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拉帝歐斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>固拉多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艾路雷朵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>謎擬Ｑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>皮卡丘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-克雷色利亞-R</t>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>腕力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-謝米-R</t>
+  </si>
+  <si>
+    <t>5-謎擬Ｑ-R</t>
+  </si>
+  <si>
+    <t>5-達克萊伊-R</t>
+  </si>
+  <si>
+    <t>5-基格爾德-R</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1533,8 +1881,28 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1547,8 +1915,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5F9EA0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1569,13 +1943,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1602,6 +1991,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8645,8 +9040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9984,4 +10379,1349 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEB8DB3-A2E0-489C-B68A-6B72CEE91DC3}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="31.5">
+      <c r="A4" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="31.5">
+      <c r="A13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="33">
+      <c r="A15" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="31.5">
+      <c r="A17" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="31.5">
+      <c r="A18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="31.5">
+      <c r="A22" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="32.25">
+      <c r="A23" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="31.5">
+      <c r="A24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="32.25">
+      <c r="A26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="31.5">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="31.5">
+      <c r="A38" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="31.5">
+      <c r="A39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="31.5">
+      <c r="A41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1D952A-A618-43E7-A844-0C32980D7BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE82D37-CFEF-49C4-A64D-E25D9F4065D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1245" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="1425" yWindow="855" windowWidth="25125" windowHeight="11805" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
     <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
     <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
-    <sheet name="Rush 3 彈" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="421">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1229,6 +1228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4-索爾迦雷歐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1-破破袋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1289,6 +1292,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5-波爾凱尼恩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>2-勇基拉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1297,6 +1304,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>3-快龍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3-火焰雞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1381,6 +1392,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4-露奈雅拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3-蜂女王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1389,6 +1404,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5-奈克洛茲瑪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>3-杖尾鱗甲龍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,6 +1432,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5-酋雷姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5-萊希拉姆</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1431,392 +1454,13 @@
   <si>
     <t>5-洛奇亞</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-索爾迦雷歐-R</t>
-  </si>
-  <si>
-    <t>3-快龍-R</t>
-  </si>
-  <si>
-    <t>4-皮卡丘-R</t>
-  </si>
-  <si>
-    <t>4-露奈雅拉-R</t>
-  </si>
-  <si>
-    <t>5-波爾凱尼恩-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-奈克洛茲瑪-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5-酋雷姆-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-快龍-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-索爾迦雷歐-R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火稚雞</t>
-  </si>
-  <si>
-    <t>2-頓甲</t>
-  </si>
-  <si>
-    <t>2-毒薔薇</t>
-  </si>
-  <si>
-    <t>2-貓頭夜鷹</t>
-  </si>
-  <si>
-    <t>2-奇魯莉安</t>
-  </si>
-  <si>
-    <t>2-沼王</t>
-  </si>
-  <si>
-    <t>2-心蝙蝠</t>
-  </si>
-  <si>
-    <t>2-烈咬陸鯊</t>
-  </si>
-  <si>
-    <t>1-咕咕</t>
-  </si>
-  <si>
-    <t>1-烏波</t>
-  </si>
-  <si>
-    <t>1-拉魯拉絲</t>
-  </si>
-  <si>
-    <t>1-滾滾蝙蝠</t>
-  </si>
-  <si>
-    <t>1-小小象</t>
-  </si>
-  <si>
-    <t>1-含羞苞</t>
-  </si>
-  <si>
-    <t>3-沙奈朵</t>
-  </si>
-  <si>
-    <t>3-艾路雷朵</t>
-  </si>
-  <si>
-    <t>3-沼王</t>
-  </si>
-  <si>
-    <t>3-貓頭夜鷹</t>
-  </si>
-  <si>
-    <t>3-頓甲</t>
-  </si>
-  <si>
-    <t>3-心蝙蝠</t>
-  </si>
-  <si>
-    <t>3-羅絲雷朵</t>
-  </si>
-  <si>
-    <t>4-艾路雷朵</t>
-  </si>
-  <si>
-    <t>4-土地雲</t>
-  </si>
-  <si>
-    <t>4-龍捲雲</t>
-  </si>
-  <si>
-    <t>4-雷電雲</t>
-  </si>
-  <si>
-    <t>4-沙奈朵</t>
-  </si>
-  <si>
-    <t>4-羅絲雷朵</t>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>雷吉奇卡斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>伊裴爾塔爾</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>拉帝亞斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>哲爾尼亞斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>蓋歐卡</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>虛無伊德</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>烈空坐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>電束木</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>拉帝歐斯</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>固拉多</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Microsoft JhengHei UI"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>艾路雷朵</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>謎擬Ｑ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>皮卡丘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>-R</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-克雷色利亞-R</t>
-  </si>
-  <si>
-    <r>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>腕力</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4-謝米-R</t>
-  </si>
-  <si>
-    <t>5-謎擬Ｑ-R</t>
-  </si>
-  <si>
-    <t>5-達克萊伊-R</t>
-  </si>
-  <si>
-    <t>5-基格爾德-R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1881,28 +1525,8 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Microsoft JhengHei UI"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1915,14 +1539,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5F9EA0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1943,28 +1561,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1991,12 +1594,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9040,8 +8637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9083,7 +8680,7 @@
         <v>357</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>354</v>
@@ -9092,13 +8689,13 @@
         <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -9109,13 +8706,13 @@
         <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>358</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>359</v>
@@ -9124,33 +8721,33 @@
         <v>358</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>361</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -9158,25 +8755,25 @@
         <v>350</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -9184,25 +8781,25 @@
         <v>351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>349</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>357</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -9210,22 +8807,22 @@
         <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>394</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>348</v>
@@ -9236,22 +8833,22 @@
         <v>353</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>363</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>352</v>
@@ -9262,25 +8859,25 @@
         <v>354</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>360</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -9288,10 +8885,10 @@
         <v>355</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>349</v>
@@ -9300,13 +8897,13 @@
         <v>353</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -9314,7 +8911,7 @@
         <v>356</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>351</v>
@@ -9323,16 +8920,16 @@
         <v>353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>363</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -9343,7 +8940,7 @@
         <v>360</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>363</v>
@@ -9352,24 +8949,24 @@
         <v>349</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>363</v>
@@ -9378,10 +8975,10 @@
         <v>348</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>362</v>
@@ -9389,28 +8986,28 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>361</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9418,25 +9015,25 @@
         <v>358</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9444,22 +9041,22 @@
         <v>359</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>361</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>357</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>349</v>
@@ -9470,16 +9067,16 @@
         <v>360</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>362</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>348</v>
@@ -9488,7 +9085,7 @@
         <v>360</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9502,19 +9099,19 @@
         <v>353</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -9522,19 +9119,19 @@
         <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>351</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>362</v>
@@ -9548,30 +9145,30 @@
         <v>363</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>354</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>351</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>356</v>
@@ -9580,16 +9177,16 @@
         <v>357</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>353</v>
@@ -9600,22 +9197,22 @@
         <v>356</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>356</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>361</v>
@@ -9623,16 +9220,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>352</v>
@@ -9644,24 +9241,24 @@
         <v>349</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>415</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>361</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>354</v>
@@ -9670,30 +9267,30 @@
         <v>363</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>359</v>
@@ -9701,25 +9298,25 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>358</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>354</v>
@@ -9727,7 +9324,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>358</v>
@@ -9736,13 +9333,13 @@
         <v>348</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>422</v>
+        <v>383</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>349</v>
@@ -9753,13 +9350,13 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>363</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>349</v>
@@ -9768,50 +9365,50 @@
         <v>360</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>351</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F29" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>365</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>357</v>
@@ -9823,7 +9420,7 @@
         <v>362</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>357</v>
@@ -9831,36 +9428,36 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>363</v>
@@ -9869,10 +9466,10 @@
         <v>348</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>361</v>
@@ -9883,7 +9480,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>362</v>
@@ -9892,16 +9489,16 @@
         <v>349</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>363</v>
@@ -9909,106 +9506,106 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>350</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>358</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>359</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>348</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>362</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>351</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>360</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -10016,22 +9613,22 @@
         <v>354</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>370</v>
-      </c>
       <c r="G38" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>360</v>
@@ -10051,24 +9648,24 @@
         <v>352</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>360</v>
@@ -10077,39 +9674,39 @@
         <v>360</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>358</v>
@@ -10123,36 +9720,36 @@
         <v>354</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>417</v>
+        <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>351</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>354</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>360</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>357</v>
@@ -10161,59 +9758,59 @@
         <v>353</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>358</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>348</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>359</v>
       </c>
       <c r="D45" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F45" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="G45" s="4" t="s">
-        <v>419</v>
+        <v>380</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>361</v>
@@ -10221,45 +9818,45 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>359</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>348</v>
@@ -10268,82 +9865,82 @@
         <v>353</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>374</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>373</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>358</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>353</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>351</v>
@@ -10351,1373 +9948,28 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>423</v>
+        <v>364</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>388</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAEB8DB3-A2E0-489C-B68A-6B72CEE91DC3}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="8" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="31.5">
-      <c r="A4" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="31.5">
-      <c r="A13" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33">
-      <c r="A15" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="31.5">
-      <c r="A17" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="31.5">
-      <c r="A18" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="31.5">
-      <c r="A22" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="32.25">
-      <c r="A23" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="31.5">
-      <c r="A24" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="32.25">
-      <c r="A26" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="31.5">
-      <c r="A29" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="F34" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="31.5">
-      <c r="A38" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="31.5">
-      <c r="A39" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="31.5">
-      <c r="A41" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>250</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE82D37-CFEF-49C4-A64D-E25D9F4065D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8A615-89CA-4546-9E9A-494248368818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="855" windowWidth="25125" windowHeight="11805" activeTab="5" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="2235" yWindow="3525" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
     <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
     <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
+    <sheet name="Rush 3 彈" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="468">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1455,12 +1456,381 @@
     <t>5-洛奇亞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2-頓甲</t>
+  </si>
+  <si>
+    <t>3-沙奈朵</t>
+  </si>
+  <si>
+    <t>4-克雷色利亞-R</t>
+  </si>
+  <si>
+    <t>4-皮卡丘-R</t>
+  </si>
+  <si>
+    <t>2-毒薔薇</t>
+  </si>
+  <si>
+    <t>1-咕咕</t>
+  </si>
+  <si>
+    <t>4-艾路雷朵</t>
+  </si>
+  <si>
+    <t>1-烏波</t>
+  </si>
+  <si>
+    <t>1-拉魯拉絲</t>
+  </si>
+  <si>
+    <t>2-貓頭夜鷹</t>
+  </si>
+  <si>
+    <t>5-基格爾德-R</t>
+  </si>
+  <si>
+    <t>2-奇魯莉安</t>
+  </si>
+  <si>
+    <t>1-滾滾蝙蝠</t>
+  </si>
+  <si>
+    <t>5-達克萊伊-R</t>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>艾路雷朵</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-艾路雷朵</t>
+  </si>
+  <si>
+    <t>3-沼王</t>
+  </si>
+  <si>
+    <t>2-沼王</t>
+  </si>
+  <si>
+    <t>2-心蝙蝠</t>
+  </si>
+  <si>
+    <t>3-貓頭夜鷹</t>
+  </si>
+  <si>
+    <t>4-土地雲</t>
+  </si>
+  <si>
+    <t>3-頓甲</t>
+  </si>
+  <si>
+    <t>1-小小象</t>
+  </si>
+  <si>
+    <t>4-龍捲雲</t>
+  </si>
+  <si>
+    <t>4-雷電雲</t>
+  </si>
+  <si>
+    <t>1-含羞苞</t>
+  </si>
+  <si>
+    <t>3-心蝙蝠</t>
+  </si>
+  <si>
+    <t>火稚雞</t>
+  </si>
+  <si>
+    <t>4-謝米-R</t>
+  </si>
+  <si>
+    <t>3-羅絲雷朵</t>
+  </si>
+  <si>
+    <t>4-沙奈朵</t>
+  </si>
+  <si>
+    <t>4-羅絲雷朵</t>
+  </si>
+  <si>
+    <t>2-烈咬陸鯊</t>
+  </si>
+  <si>
+    <t>5-謎擬Ｑ-R</t>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷吉奇卡斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拉帝歐斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腕力</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>固拉多</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>皮卡丘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>電束木</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>謎擬Ｑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-R</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊裴爾塔爾</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烈空坐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>虛無伊德</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拉帝亞斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓋歐卡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哲爾尼亞斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1524,6 +1894,21 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8637,8 +9022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9976,4 +10361,1349 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A66B7-518A-41CD-AC3C-52F297779BF3}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8A615-89CA-4546-9E9A-494248368818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E7EE9-0DDD-4E31-883F-D768750D869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3525" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="4950" yWindow="4020" windowWidth="25125" windowHeight="11805" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
-    <sheet name="Legend 2 彈" sheetId="4" r:id="rId2"/>
-    <sheet name="Legend 3 彈" sheetId="3" r:id="rId3"/>
-    <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
-    <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
-    <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
-    <sheet name="Rush 3 彈" sheetId="8" r:id="rId7"/>
+    <sheet name="Legend 2 彈" sheetId="4" r:id="rId1"/>
+    <sheet name="Legend 3 彈" sheetId="3" r:id="rId2"/>
+    <sheet name="Legend 4 彈" sheetId="1" r:id="rId3"/>
+    <sheet name="Rush 1 彈" sheetId="2" r:id="rId4"/>
+    <sheet name="Rush 2 彈" sheetId="7" r:id="rId5"/>
+    <sheet name="Rush 3 彈" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="402">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -961,208 +960,10 @@
     <t>5-爆肌蚊</t>
   </si>
   <si>
-    <t>1-菊草葉</t>
-  </si>
-  <si>
-    <t>3-大竺葵</t>
-  </si>
-  <si>
-    <t>1-獨角犀牛</t>
-  </si>
-  <si>
-    <t>1-伊布</t>
-  </si>
-  <si>
-    <t>1-瑪瑙水母</t>
-  </si>
-  <si>
-    <t>1-火球鼠</t>
-  </si>
-  <si>
-    <t>3-樹才怪</t>
-  </si>
-  <si>
-    <t>2-樹才怪</t>
-  </si>
-  <si>
-    <t>2-火恐龍</t>
-  </si>
-  <si>
-    <t>4-雷伊布</t>
-  </si>
-  <si>
-    <t>2-月桂葉</t>
-  </si>
-  <si>
-    <t>3-火伊布</t>
-  </si>
-  <si>
-    <t>3-卡比獸</t>
-  </si>
-  <si>
-    <t>1-小火龍</t>
-  </si>
-  <si>
-    <t>3-超甲狂犀</t>
-  </si>
-  <si>
-    <t>1-傑尼龜</t>
-  </si>
-  <si>
-    <t>2-妙蛙草</t>
-  </si>
-  <si>
-    <t>2-火岩鼠</t>
-  </si>
-  <si>
-    <t>2-伊布</t>
-  </si>
-  <si>
-    <t>4-水箭龜</t>
-  </si>
-  <si>
-    <t>2-甲殼龍</t>
-  </si>
-  <si>
-    <t>1-小鋸鱷</t>
-  </si>
-  <si>
-    <t>4-皮卡丘</t>
-  </si>
-  <si>
-    <t>2-皮卡丘</t>
-  </si>
-  <si>
-    <t>4-大力鱷</t>
-  </si>
-  <si>
-    <t>2-鑽角犀獸</t>
-  </si>
-  <si>
-    <t>3-水箭龜</t>
-  </si>
-  <si>
-    <t>3-妙蛙花</t>
-  </si>
-  <si>
-    <t>5-超夢X</t>
-  </si>
-  <si>
-    <t>5-電束木</t>
-  </si>
-  <si>
-    <t>1-盆才怪</t>
-  </si>
-  <si>
-    <t>4-席多藍恩</t>
-  </si>
-  <si>
-    <t>1-妙蛙種子</t>
-  </si>
-  <si>
-    <t>4-暴飛龍</t>
-  </si>
-  <si>
-    <t>5-急涷鳥</t>
-  </si>
-  <si>
-    <t>2-藍鱷</t>
-  </si>
-  <si>
-    <t>5-火焰鳥</t>
-  </si>
-  <si>
-    <t>2-毒刺水母</t>
-  </si>
-  <si>
-    <t>1-寶貝龍</t>
-  </si>
-  <si>
-    <t>4-水伊布</t>
-  </si>
-  <si>
-    <t>3-雷伊布</t>
-  </si>
-  <si>
-    <t>4-噴火龍X</t>
-  </si>
-  <si>
-    <t>4-噴火龍Y</t>
-  </si>
-  <si>
-    <t>5-捷克羅姆</t>
-  </si>
-  <si>
-    <t>3-暴飛龍</t>
-  </si>
-  <si>
-    <t>4-美洛耶塔-綠</t>
-  </si>
-  <si>
-    <t>2-卡咪龜</t>
-  </si>
-  <si>
-    <t>3-大力鱷</t>
-  </si>
-  <si>
-    <t>4-瑪納霏</t>
-  </si>
-  <si>
-    <t>4-火爆獸</t>
-  </si>
-  <si>
-    <t>5-超夢Y</t>
-  </si>
-  <si>
-    <t>4-妙蛙花</t>
-  </si>
-  <si>
-    <t>3-火爆獸</t>
-  </si>
-  <si>
-    <t>3-水伊布</t>
-  </si>
-  <si>
-    <t>4-美洛耶塔-橙</t>
-  </si>
-  <si>
-    <t>3-噴火龍</t>
-  </si>
-  <si>
-    <t>4-蓋諾賽克特</t>
-  </si>
-  <si>
-    <t>3-毒刺水母</t>
-  </si>
-  <si>
     <t>4-巨鉗螳螂</t>
   </si>
   <si>
     <t>3-飛天螳螂</t>
-  </si>
-  <si>
-    <t>4-火伊布</t>
-  </si>
-  <si>
-    <t>5-閃電鳥</t>
-  </si>
-  <si>
-    <t>4-超甲狂犀</t>
-  </si>
-  <si>
-    <t>5-夢幻</t>
-  </si>
-  <si>
-    <t>4-克雷色利亞</t>
-  </si>
-  <si>
-    <t>5-虛吾伊德</t>
-  </si>
-  <si>
-    <t>5-萊希拉姆</t>
-  </si>
-  <si>
-    <t>4-大竺葵</t>
   </si>
   <si>
     <t>2-夢歌仙人掌</t>
@@ -1830,7 +1631,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1892,12 +1693,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1952,7 +1747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1975,9 +1770,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2293,1355 +2085,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FFC75-5B4A-4FC5-A507-418BE18DE183}">
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="8" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4">
-        <v>7</v>
-      </c>
-      <c r="H1" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="18" thickBot="1">
-      <c r="A2" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="18" thickBot="1">
-      <c r="A3" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="18" thickBot="1">
-      <c r="A4" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="18" thickBot="1">
-      <c r="A5" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="18" thickBot="1">
-      <c r="A6" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickBot="1">
-      <c r="A7" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" thickBot="1">
-      <c r="A8" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" thickBot="1">
-      <c r="A9" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" thickBot="1">
-      <c r="A10" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1">
-      <c r="A11" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" thickBot="1">
-      <c r="A12" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" thickBot="1">
-      <c r="A13" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="18" thickBot="1">
-      <c r="A14" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" thickBot="1">
-      <c r="A15" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18" thickBot="1">
-      <c r="A16" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18" thickBot="1">
-      <c r="A17" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18" thickBot="1">
-      <c r="A18" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="18" thickBot="1">
-      <c r="A19" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" thickBot="1">
-      <c r="A20" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="18" thickBot="1">
-      <c r="A23" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="18" thickBot="1">
-      <c r="A24" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="18" thickBot="1">
-      <c r="A25" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" thickBot="1">
-      <c r="A26" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" thickBot="1">
-      <c r="A27" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="18" thickBot="1">
-      <c r="A28" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="18" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="18" thickBot="1">
-      <c r="A30" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="18" thickBot="1">
-      <c r="A31" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="18" thickBot="1">
-      <c r="A32" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" thickBot="1">
-      <c r="A33" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="18" thickBot="1">
-      <c r="A34" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="18" thickBot="1">
-      <c r="A35" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="18" thickBot="1">
-      <c r="A36" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="18" thickBot="1">
-      <c r="A37" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" thickBot="1">
-      <c r="A38" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="18" thickBot="1">
-      <c r="A39" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="18" thickBot="1">
-      <c r="A40" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="18" thickBot="1">
-      <c r="A41" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="18" thickBot="1">
-      <c r="A42" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="18" thickBot="1">
-      <c r="A43" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18" thickBot="1">
-      <c r="A44" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="18" thickBot="1">
-      <c r="A45" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>312</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>281</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" thickBot="1">
-      <c r="A46" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="18" thickBot="1">
-      <c r="A47" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="18" thickBot="1">
-      <c r="A48" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="18" thickBot="1">
-      <c r="A49" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="18" thickBot="1">
-      <c r="A50" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="18" thickBot="1">
-      <c r="A51" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="H51" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA9355-9932-43D6-9854-E2BFB3D62CFE}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -4982,7 +3429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757F238-F30D-4581-A579-2F4EC684FD3E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -6327,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415D778-A234-49F7-84D1-6E8D39E2E57E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -7673,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -9018,7 +7465,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -9059,701 +7506,701 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>417</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>418</v>
+        <v>352</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>401</v>
+        <v>335</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>356</v>
+        <v>290</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>107</v>
@@ -9761,600 +8208,600 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>407</v>
+        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>363</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>415</v>
+        <v>349</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>350</v>
+        <v>284</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>378</v>
+        <v>312</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>406</v>
+        <v>340</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>352</v>
+        <v>286</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>405</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>397</v>
+        <v>331</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>362</v>
+        <v>296</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>382</v>
+        <v>316</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>412</v>
+        <v>346</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>360</v>
+        <v>294</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>357</v>
+        <v>291</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>413</v>
+        <v>347</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>384</v>
+        <v>318</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>380</v>
+        <v>314</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>361</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>348</v>
+        <v>282</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>403</v>
+        <v>337</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>358</v>
+        <v>292</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>402</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>387</v>
+        <v>321</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>374</v>
+        <v>308</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>379</v>
+        <v>313</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>394</v>
+        <v>328</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>395</v>
+        <v>329</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>368</v>
+        <v>302</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>396</v>
+        <v>330</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>381</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>353</v>
+        <v>287</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>388</v>
+        <v>322</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>393</v>
+        <v>327</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>392</v>
+        <v>326</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>351</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>389</v>
+        <v>323</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>383</v>
+        <v>317</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>359</v>
+        <v>293</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>390</v>
+        <v>324</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>391</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -10363,12 +8810,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A66B7-518A-41CD-AC3C-52F297779BF3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10407,7 +8854,7 @@
         <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>179</v>
@@ -10419,13 +8866,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -10433,7 +8880,7 @@
         <v>226</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>223</v>
@@ -10445,7 +8892,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>18</v>
@@ -10456,7 +8903,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>455</v>
+        <v>389</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>239</v>
@@ -10477,18 +8924,18 @@
         <v>226</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -10497,7 +8944,7 @@
         <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>226</v>
@@ -10508,22 +8955,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>456</v>
+        <v>390</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>184</v>
@@ -10534,19 +8981,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>457</v>
+        <v>391</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>168</v>
@@ -10563,22 +9010,22 @@
         <v>164</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>434</v>
+        <v>368</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>164</v>
@@ -10586,51 +9033,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>435</v>
+        <v>369</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -10638,7 +9085,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>154</v>
@@ -10647,39 +9094,39 @@
         <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>191</v>
@@ -10696,7 +9143,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>239</v>
@@ -10708,67 +9155,67 @@
         <v>239</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>423</v>
+        <v>357</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>238</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>431</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>165</v>
@@ -10777,16 +9224,16 @@
         <v>168</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>248</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>248</v>
@@ -10794,28 +9241,28 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -10832,13 +9279,13 @@
         <v>236</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>58</v>
@@ -10846,51 +9293,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>168</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>448</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>239</v>
@@ -10904,10 +9351,10 @@
         <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>236</v>
@@ -10924,7 +9371,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>163</v>
@@ -10939,39 +9386,39 @@
         <v>191</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -10979,13 +9426,13 @@
         <v>223</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>206</v>
@@ -10994,7 +9441,7 @@
         <v>238</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>154</v>
@@ -11005,13 +9452,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>164</v>
@@ -11020,10 +9467,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -11031,45 +9478,45 @@
         <v>158</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>447</v>
+        <v>381</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>463</v>
+        <v>397</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>439</v>
+        <v>373</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>239</v>
@@ -11089,7 +9536,7 @@
         <v>191</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>239</v>
@@ -11098,7 +9545,7 @@
         <v>154</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>168</v>
@@ -11112,22 +9559,22 @@
         <v>193</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>165</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -11138,19 +9585,19 @@
         <v>238</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>436</v>
+        <v>370</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>195</v>
@@ -11164,13 +9611,13 @@
         <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>163</v>
@@ -11187,22 +9634,22 @@
         <v>239</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>165</v>
@@ -11210,28 +9657,28 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -11248,10 +9695,10 @@
         <v>158</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>464</v>
+        <v>398</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>250</v>
@@ -11262,45 +9709,45 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>440</v>
+        <v>374</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>248</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>451</v>
+        <v>385</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>18</v>
@@ -11317,16 +9764,16 @@
         <v>238</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>236</v>
@@ -11335,24 +9782,24 @@
         <v>195</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>434</v>
+        <v>368</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>465</v>
+        <v>399</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>466</v>
+        <v>400</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>10</v>
@@ -11361,7 +9808,7 @@
         <v>164</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -11381,10 +9828,10 @@
         <v>163</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>154</v>
@@ -11395,10 +9842,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>223</v>
@@ -11407,10 +9854,10 @@
         <v>164</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>168</v>
@@ -11436,15 +9883,15 @@
         <v>164</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>193</v>
@@ -11453,19 +9900,19 @@
         <v>163</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -11473,13 +9920,13 @@
         <v>206</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>339</v>
+        <v>281</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>239</v>
@@ -11496,19 +9943,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>437</v>
+        <v>371</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>206</v>
@@ -11522,16 +9969,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>441</v>
+        <v>375</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>444</v>
+        <v>378</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>467</v>
+        <v>401</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>202</v>
@@ -11551,25 +9998,25 @@
         <v>191</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>428</v>
+        <v>362</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -11577,16 +10024,16 @@
         <v>154</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>165</v>
@@ -11595,21 +10042,21 @@
         <v>58</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>446</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>223</v>
@@ -11629,22 +10076,22 @@
         <v>179</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>442</v>
+        <v>376</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>445</v>
+        <v>379</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>206</v>
@@ -11652,28 +10099,28 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>430</v>
+        <v>364</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>421</v>
+        <v>355</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>438</v>
+        <v>372</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>426</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -11681,22 +10128,22 @@
         <v>193</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>449</v>
+        <v>383</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>443</v>
+        <v>377</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>429</v>
+        <v>363</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>432</v>
+        <v>366</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>250</v>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597E7EE9-0DDD-4E31-883F-D768750D869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8A615-89CA-4546-9E9A-494248368818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4950" yWindow="4020" windowWidth="25125" windowHeight="11805" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="2235" yWindow="3525" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Legend 2 彈" sheetId="4" r:id="rId1"/>
-    <sheet name="Legend 3 彈" sheetId="3" r:id="rId2"/>
-    <sheet name="Legend 4 彈" sheetId="1" r:id="rId3"/>
-    <sheet name="Rush 1 彈" sheetId="2" r:id="rId4"/>
-    <sheet name="Rush 2 彈" sheetId="7" r:id="rId5"/>
-    <sheet name="Rush 3 彈" sheetId="8" r:id="rId6"/>
+    <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
+    <sheet name="Legend 2 彈" sheetId="4" r:id="rId2"/>
+    <sheet name="Legend 3 彈" sheetId="3" r:id="rId3"/>
+    <sheet name="Legend 4 彈" sheetId="1" r:id="rId4"/>
+    <sheet name="Rush 1 彈" sheetId="2" r:id="rId5"/>
+    <sheet name="Rush 2 彈" sheetId="7" r:id="rId6"/>
+    <sheet name="Rush 3 彈" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="468">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -960,10 +961,208 @@
     <t>5-爆肌蚊</t>
   </si>
   <si>
+    <t>1-菊草葉</t>
+  </si>
+  <si>
+    <t>3-大竺葵</t>
+  </si>
+  <si>
+    <t>1-獨角犀牛</t>
+  </si>
+  <si>
+    <t>1-伊布</t>
+  </si>
+  <si>
+    <t>1-瑪瑙水母</t>
+  </si>
+  <si>
+    <t>1-火球鼠</t>
+  </si>
+  <si>
+    <t>3-樹才怪</t>
+  </si>
+  <si>
+    <t>2-樹才怪</t>
+  </si>
+  <si>
+    <t>2-火恐龍</t>
+  </si>
+  <si>
+    <t>4-雷伊布</t>
+  </si>
+  <si>
+    <t>2-月桂葉</t>
+  </si>
+  <si>
+    <t>3-火伊布</t>
+  </si>
+  <si>
+    <t>3-卡比獸</t>
+  </si>
+  <si>
+    <t>1-小火龍</t>
+  </si>
+  <si>
+    <t>3-超甲狂犀</t>
+  </si>
+  <si>
+    <t>1-傑尼龜</t>
+  </si>
+  <si>
+    <t>2-妙蛙草</t>
+  </si>
+  <si>
+    <t>2-火岩鼠</t>
+  </si>
+  <si>
+    <t>2-伊布</t>
+  </si>
+  <si>
+    <t>4-水箭龜</t>
+  </si>
+  <si>
+    <t>2-甲殼龍</t>
+  </si>
+  <si>
+    <t>1-小鋸鱷</t>
+  </si>
+  <si>
+    <t>4-皮卡丘</t>
+  </si>
+  <si>
+    <t>2-皮卡丘</t>
+  </si>
+  <si>
+    <t>4-大力鱷</t>
+  </si>
+  <si>
+    <t>2-鑽角犀獸</t>
+  </si>
+  <si>
+    <t>3-水箭龜</t>
+  </si>
+  <si>
+    <t>3-妙蛙花</t>
+  </si>
+  <si>
+    <t>5-超夢X</t>
+  </si>
+  <si>
+    <t>5-電束木</t>
+  </si>
+  <si>
+    <t>1-盆才怪</t>
+  </si>
+  <si>
+    <t>4-席多藍恩</t>
+  </si>
+  <si>
+    <t>1-妙蛙種子</t>
+  </si>
+  <si>
+    <t>4-暴飛龍</t>
+  </si>
+  <si>
+    <t>5-急涷鳥</t>
+  </si>
+  <si>
+    <t>2-藍鱷</t>
+  </si>
+  <si>
+    <t>5-火焰鳥</t>
+  </si>
+  <si>
+    <t>2-毒刺水母</t>
+  </si>
+  <si>
+    <t>1-寶貝龍</t>
+  </si>
+  <si>
+    <t>4-水伊布</t>
+  </si>
+  <si>
+    <t>3-雷伊布</t>
+  </si>
+  <si>
+    <t>4-噴火龍X</t>
+  </si>
+  <si>
+    <t>4-噴火龍Y</t>
+  </si>
+  <si>
+    <t>5-捷克羅姆</t>
+  </si>
+  <si>
+    <t>3-暴飛龍</t>
+  </si>
+  <si>
+    <t>4-美洛耶塔-綠</t>
+  </si>
+  <si>
+    <t>2-卡咪龜</t>
+  </si>
+  <si>
+    <t>3-大力鱷</t>
+  </si>
+  <si>
+    <t>4-瑪納霏</t>
+  </si>
+  <si>
+    <t>4-火爆獸</t>
+  </si>
+  <si>
+    <t>5-超夢Y</t>
+  </si>
+  <si>
+    <t>4-妙蛙花</t>
+  </si>
+  <si>
+    <t>3-火爆獸</t>
+  </si>
+  <si>
+    <t>3-水伊布</t>
+  </si>
+  <si>
+    <t>4-美洛耶塔-橙</t>
+  </si>
+  <si>
+    <t>3-噴火龍</t>
+  </si>
+  <si>
+    <t>4-蓋諾賽克特</t>
+  </si>
+  <si>
+    <t>3-毒刺水母</t>
+  </si>
+  <si>
     <t>4-巨鉗螳螂</t>
   </si>
   <si>
     <t>3-飛天螳螂</t>
+  </si>
+  <si>
+    <t>4-火伊布</t>
+  </si>
+  <si>
+    <t>5-閃電鳥</t>
+  </si>
+  <si>
+    <t>4-超甲狂犀</t>
+  </si>
+  <si>
+    <t>5-夢幻</t>
+  </si>
+  <si>
+    <t>4-克雷色利亞</t>
+  </si>
+  <si>
+    <t>5-虛吾伊德</t>
+  </si>
+  <si>
+    <t>5-萊希拉姆</t>
+  </si>
+  <si>
+    <t>4-大竺葵</t>
   </si>
   <si>
     <t>2-夢歌仙人掌</t>
@@ -1631,7 +1830,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1693,6 +1892,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="1"/>
       <charset val="136"/>
@@ -1747,7 +1952,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1770,6 +1975,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2085,10 +2293,1355 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734FFC75-5B4A-4FC5-A507-418BE18DE183}">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" thickBot="1">
+      <c r="A2" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18" thickBot="1">
+      <c r="A3" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1">
+      <c r="A4" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" thickBot="1">
+      <c r="A5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1">
+      <c r="A6" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickBot="1">
+      <c r="A7" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" thickBot="1">
+      <c r="A9" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" thickBot="1">
+      <c r="A10" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" thickBot="1">
+      <c r="A11" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" thickBot="1">
+      <c r="A12" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18" thickBot="1">
+      <c r="A13" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1">
+      <c r="A14" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" thickBot="1">
+      <c r="A15" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="18" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="18" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18" thickBot="1">
+      <c r="A19" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18" thickBot="1">
+      <c r="A20" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18" thickBot="1">
+      <c r="A21" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18" thickBot="1">
+      <c r="A23" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1">
+      <c r="A24" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18" thickBot="1">
+      <c r="A25" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="A26" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickBot="1">
+      <c r="A27" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18" thickBot="1">
+      <c r="A28" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18" thickBot="1">
+      <c r="A29" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="18" thickBot="1">
+      <c r="A30" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="18" thickBot="1">
+      <c r="A31" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="18" thickBot="1">
+      <c r="A32" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" thickBot="1">
+      <c r="A33" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickBot="1">
+      <c r="A34" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="18" thickBot="1">
+      <c r="A35" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18" thickBot="1">
+      <c r="A36" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1">
+      <c r="A37" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" thickBot="1">
+      <c r="A38" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="18" thickBot="1">
+      <c r="A39" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="18" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="18" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="18" thickBot="1">
+      <c r="A42" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="18" thickBot="1">
+      <c r="A43" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="18" thickBot="1">
+      <c r="A44" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H44" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="18" thickBot="1">
+      <c r="A45" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" thickBot="1">
+      <c r="A46" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="18" thickBot="1">
+      <c r="A47" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="18" thickBot="1">
+      <c r="A48" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="18" thickBot="1">
+      <c r="A49" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="18" thickBot="1">
+      <c r="A50" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="H50" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="18" thickBot="1">
+      <c r="A51" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DA9355-9932-43D6-9854-E2BFB3D62CFE}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -3429,7 +4982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757F238-F30D-4581-A579-2F4EC684FD3E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -4774,7 +6327,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415D778-A234-49F7-84D1-6E8D39E2E57E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -6120,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{339D5A71-502A-4EA9-A0AB-378AD69CB425}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -7465,7 +9018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
@@ -7506,701 +9059,701 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>351</v>
+        <v>417</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>289</v>
+        <v>355</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>352</v>
+        <v>418</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>335</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>345</v>
+        <v>411</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>344</v>
+        <v>410</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>342</v>
+        <v>408</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>348</v>
+        <v>414</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>107</v>
@@ -8208,600 +9761,600 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>353</v>
+        <v>419</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>341</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>283</v>
+        <v>349</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>297</v>
+        <v>363</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>340</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>334</v>
+        <v>400</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>354</v>
+        <v>420</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>333</v>
+        <v>399</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>306</v>
+        <v>372</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>286</v>
+        <v>352</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>107</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>339</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
-        <v>316</v>
+        <v>382</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>346</v>
+        <v>412</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>294</v>
+        <v>360</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>291</v>
+        <v>357</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>347</v>
+        <v>413</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>338</v>
+        <v>404</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>318</v>
+        <v>384</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>314</v>
+        <v>380</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>343</v>
+        <v>409</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>299</v>
+        <v>365</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>300</v>
+        <v>366</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>282</v>
+        <v>348</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>292</v>
+        <v>358</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>336</v>
+        <v>402</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="4" t="s">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>328</v>
+        <v>394</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>329</v>
+        <v>395</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>302</v>
+        <v>368</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>330</v>
+        <v>396</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>315</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>322</v>
+        <v>388</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>327</v>
+        <v>393</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>285</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="4" t="s">
-        <v>323</v>
+        <v>389</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>317</v>
+        <v>383</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>298</v>
+        <v>364</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>324</v>
+        <v>390</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -8810,12 +10363,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A66B7-518A-41CD-AC3C-52F297779BF3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8854,7 +10407,7 @@
         <v>226</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>179</v>
@@ -8866,13 +10419,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8880,7 +10433,7 @@
         <v>226</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>223</v>
@@ -8892,7 +10445,7 @@
         <v>18</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>18</v>
@@ -8903,7 +10456,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="4" t="s">
-        <v>389</v>
+        <v>455</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>239</v>
@@ -8924,18 +10477,18 @@
         <v>226</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>250</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>6</v>
@@ -8944,7 +10497,7 @@
         <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>226</v>
@@ -8955,22 +10508,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>184</v>
@@ -8981,19 +10534,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>391</v>
+        <v>457</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>239</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>168</v>
@@ -9010,22 +10563,22 @@
         <v>164</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>191</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>392</v>
+        <v>458</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>164</v>
@@ -9033,51 +10586,51 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="4" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>248</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="4" t="s">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>6</v>
@@ -9085,7 +10638,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="4" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>154</v>
@@ -9094,39 +10647,39 @@
         <v>191</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>191</v>
@@ -9143,7 +10696,7 @@
         <v>154</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>239</v>
@@ -9155,67 +10708,67 @@
         <v>239</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>357</v>
+        <v>423</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>238</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>165</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>165</v>
@@ -9224,16 +10777,16 @@
         <v>168</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>248</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>248</v>
@@ -9241,28 +10794,28 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="4" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -9279,13 +10832,13 @@
         <v>236</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="H18" s="4" t="s">
         <v>58</v>
@@ -9293,51 +10846,51 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>168</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>382</v>
+        <v>448</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>226</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>239</v>
@@ -9351,10 +10904,10 @@
         <v>242</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>236</v>
@@ -9371,7 +10924,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>163</v>
@@ -9386,39 +10939,39 @@
         <v>191</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>226</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -9426,13 +10979,13 @@
         <v>223</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>206</v>
@@ -9441,7 +10994,7 @@
         <v>238</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>154</v>
@@ -9452,13 +11005,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>164</v>
@@ -9467,10 +11020,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -9478,45 +11031,45 @@
         <v>158</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>397</v>
+        <v>463</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>154</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>195</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>373</v>
+        <v>439</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>239</v>
@@ -9536,7 +11089,7 @@
         <v>191</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>239</v>
@@ -9545,7 +11098,7 @@
         <v>154</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>168</v>
@@ -9559,22 +11112,22 @@
         <v>193</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>165</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -9585,19 +11138,19 @@
         <v>238</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>193</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>195</v>
@@ -9611,13 +11164,13 @@
         <v>158</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>163</v>
@@ -9634,22 +11187,22 @@
         <v>239</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>165</v>
@@ -9657,28 +11210,28 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -9695,10 +11248,10 @@
         <v>158</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>398</v>
+        <v>464</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>250</v>
@@ -9709,45 +11262,45 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>374</v>
+        <v>440</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>248</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
-        <v>385</v>
+        <v>451</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>18</v>
@@ -9764,16 +11317,16 @@
         <v>238</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>154</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>236</v>
@@ -9782,24 +11335,24 @@
         <v>195</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>191</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>399</v>
+        <v>465</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>400</v>
+        <v>466</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>10</v>
@@ -9808,7 +11361,7 @@
         <v>164</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -9828,10 +11381,10 @@
         <v>163</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>154</v>
@@ -9842,10 +11395,10 @@
         <v>10</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>223</v>
@@ -9854,10 +11407,10 @@
         <v>164</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>168</v>
@@ -9883,15 +11436,15 @@
         <v>164</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
-        <v>384</v>
+        <v>450</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>193</v>
@@ -9900,19 +11453,19 @@
         <v>163</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>158</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9920,13 +11473,13 @@
         <v>206</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>239</v>
@@ -9943,19 +11496,19 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>226</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>226</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>371</v>
+        <v>437</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>206</v>
@@ -9969,16 +11522,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>375</v>
+        <v>441</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>378</v>
+        <v>444</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>401</v>
+        <v>467</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>202</v>
@@ -9998,25 +11551,25 @@
         <v>191</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>250</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>362</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -10024,16 +11577,16 @@
         <v>154</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="F47" s="4" t="s">
         <v>165</v>
@@ -10042,21 +11595,21 @@
         <v>58</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>223</v>
@@ -10076,22 +11629,22 @@
         <v>179</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>376</v>
+        <v>442</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>158</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>206</v>
@@ -10099,28 +11652,28 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="4" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>239</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>280</v>
+        <v>338</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>372</v>
+        <v>438</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -10128,22 +11681,22 @@
         <v>193</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>383</v>
+        <v>449</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>377</v>
+        <v>443</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>165</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>250</v>

--- a/data/gaole.xlsx
+++ b/data/gaole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AdvmedsNew\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8A615-89CA-4546-9E9A-494248368818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D176DE-B456-45E6-8E88-769044A4A7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="3525" windowWidth="25125" windowHeight="11805" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="6" xr2:uid="{80CAA787-1537-4523-969E-3FD1AC310A5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Legend 1 彈" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2800" uniqueCount="469">
   <si>
     <t>1-利歐路</t>
   </si>
@@ -1549,9 +1549,6 @@
   </si>
   <si>
     <t>3-心蝙蝠</t>
-  </si>
-  <si>
-    <t>火稚雞</t>
   </si>
   <si>
     <t>4-謝米-R</t>
@@ -1742,34 +1739,6 @@
         <charset val="136"/>
         <scheme val="minor"/>
       </rPr>
-      <t>烈空坐</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>W</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>5-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>虛無伊德</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1822,6 +1791,31 @@
         <scheme val="minor"/>
       </rPr>
       <t>哲爾尼亞斯</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-達克萊伊-R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-小小象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烈空坐</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1952,7 +1946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1979,6 +1973,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6331,7 +6328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4415D778-A234-49F7-84D1-6E8D39E2E57E}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -7678,7 +7675,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -9022,7 +9019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4761F32F-7B25-4D63-BBA5-F321DCBFDB3C}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -10367,1338 +10364,1339 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1A66B7-518A-41CD-AC3C-52F297779BF3}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="8" width="14.625" customWidth="1"/>
+    <col min="1" max="8" width="14.625" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="9">
         <v>2</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="9">
         <v>3</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="9">
         <v>4</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="9">
         <v>5</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="9">
         <v>6</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="9">
         <v>7</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="9" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="9" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="G6" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C21" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E27" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F27" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B31" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G35" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H35" s="9" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="C44" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="D49" s="9" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="E49" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="D51" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>456</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E51" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>461</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>439</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H27" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>451</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>449</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="H51" s="4" t="s">
+      <c r="H51" s="9" t="s">
         <v>250</v>
       </c>
     </row>
